--- a/setup_sims_SOC_study_all.xlsx
+++ b/setup_sims_SOC_study_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>exclude</t>
+  </si>
+  <si>
+    <t>rerun</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -936,18 +942,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,8 +988,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1014,7 +1024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1046,7 +1056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1078,7 +1088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1110,7 +1120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1141,8 +1151,11 @@
       <c r="J6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1174,7 +1187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1205,8 +1218,11 @@
       <c r="J8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1237,8 +1253,11 @@
       <c r="J9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1269,8 +1288,11 @@
       <c r="J10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1302,7 +1324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1333,8 +1355,11 @@
       <c r="J12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1365,8 +1390,11 @@
       <c r="J13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1401,7 +1429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1436,7 +1464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
